--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_26.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_26.xlsx
@@ -508,197 +508,197 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_0</t>
+          <t>model_1_26_3</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998000125918697</v>
+        <v>0.934875399784675</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8305417119376748</v>
+        <v>0.7523209799328762</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8235720224480219</v>
+        <v>0.6682033469938334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9997259242918396</v>
+        <v>0.9409679212962569</v>
       </c>
       <c r="F2" t="n">
-        <v>0.000832452925372861</v>
+        <v>0.2710828870168474</v>
       </c>
       <c r="G2" t="n">
-        <v>1.133168352556438</v>
+        <v>1.656230747645879</v>
       </c>
       <c r="H2" t="n">
-        <v>0.631072645821515</v>
+        <v>1.186817389127731</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001529425668729062</v>
+        <v>0.3357427674979682</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08561378638210165</v>
+        <v>1.456738188310595</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02885226031653085</v>
+        <v>0.5206562080844205</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01279919412034</v>
+        <v>0.9113196933238128</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02930665457483718</v>
+        <v>0.5288560228964875</v>
       </c>
       <c r="N2" t="n">
-        <v>144.1822677676143</v>
+        <v>36.61066129743233</v>
       </c>
       <c r="O2" t="n">
-        <v>285.5174403108307</v>
+        <v>73.57524488565815</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_1</t>
+          <t>model_1_26_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999804663247299</v>
+        <v>0.9320491801523907</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8304401011971267</v>
+        <v>0.751509361511596</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8233859055001207</v>
+        <v>0.6811446694340775</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9997382474344293</v>
+        <v>0.9519418545469936</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008130944479904622</v>
+        <v>0.2828471016873438</v>
       </c>
       <c r="G3" t="n">
-        <v>1.133847824046357</v>
+        <v>1.661658043766139</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6317383753524768</v>
+        <v>1.140527029139967</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001460658791421414</v>
+        <v>0.2733289274156823</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0840509226800361</v>
+        <v>1.43980243403141</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02851481102848943</v>
+        <v>0.5318337162002272</v>
       </c>
       <c r="L3" t="n">
-        <v>1.012501552172864</v>
+        <v>0.907471224037298</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02896389079783463</v>
+        <v>0.5402095655917094</v>
       </c>
       <c r="N3" t="n">
-        <v>144.2293265659479</v>
+        <v>36.52569760812825</v>
       </c>
       <c r="O3" t="n">
-        <v>285.5644991091643</v>
+        <v>73.49028119635408</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_8</t>
+          <t>model_1_26_4</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998572159627651</v>
+        <v>0.934373606325815</v>
       </c>
       <c r="C4" t="n">
-        <v>0.830434474878621</v>
+        <v>0.7512318786868247</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8226570415827463</v>
+        <v>0.6640981022360785</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9997845481085271</v>
+        <v>0.9353369611441865</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0005943423668718669</v>
+        <v>0.2731716156856482</v>
       </c>
       <c r="G4" t="n">
-        <v>1.133885447264112</v>
+        <v>1.663513572693075</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6343454793229666</v>
+        <v>1.201501611590453</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001202286971751864</v>
+        <v>0.3677686454043652</v>
       </c>
       <c r="J4" t="n">
-        <v>0.081824884782993</v>
+        <v>1.485195067628303</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02437913794357517</v>
+        <v>0.5226582207194757</v>
       </c>
       <c r="L4" t="n">
-        <v>1.009138178383033</v>
+        <v>0.9106364001032374</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02476308499598935</v>
+        <v>0.5308895652292664</v>
       </c>
       <c r="N4" t="n">
-        <v>144.8561100588737</v>
+        <v>36.59531010483278</v>
       </c>
       <c r="O4" t="n">
-        <v>286.1912826020901</v>
+        <v>73.5598936930586</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_4</t>
+          <t>model_1_26_1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998341800913213</v>
+        <v>0.9316721927828989</v>
       </c>
       <c r="C5" t="n">
-        <v>0.830363136817748</v>
+        <v>0.7511174507890191</v>
       </c>
       <c r="D5" t="n">
-        <v>0.822548434182335</v>
+        <v>0.6781352122307067</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9997692364631494</v>
+        <v>0.9440700269621329</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000690229796741268</v>
+        <v>0.2844163216772219</v>
       </c>
       <c r="G5" t="n">
-        <v>1.134362485205652</v>
+        <v>1.664278752572593</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6347339616968191</v>
+        <v>1.15129168305807</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001287730602011023</v>
+        <v>0.3180996560879968</v>
       </c>
       <c r="J5" t="n">
-        <v>0.08710426823035804</v>
+        <v>1.495316053684412</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02627222481521631</v>
+        <v>0.5333069675873567</v>
       </c>
       <c r="L5" t="n">
-        <v>1.010612474155437</v>
+        <v>0.9069578795341602</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02668598609346624</v>
+        <v>0.541706019215475</v>
       </c>
       <c r="N5" t="n">
-        <v>144.5569719541252</v>
+        <v>36.51463238567227</v>
       </c>
       <c r="O5" t="n">
-        <v>285.8921444973416</v>
+        <v>73.47921597389809</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998362632331248</v>
+        <v>0.9342743113587182</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8303390655846321</v>
+        <v>0.7510463370738618</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8225928515811963</v>
+        <v>0.6634058438111406</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9997734263560932</v>
+        <v>0.9343813855521701</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006815586633708654</v>
+        <v>0.2735849336370502</v>
       </c>
       <c r="G6" t="n">
-        <v>1.134523449652335</v>
+        <v>1.664754290313298</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6345750832365611</v>
+        <v>1.203977779837006</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001264349727213631</v>
+        <v>0.3732034462933397</v>
       </c>
       <c r="J6" t="n">
-        <v>0.08642275774566784</v>
+        <v>1.489906946717427</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02610667852046417</v>
+        <v>0.5230534711069702</v>
       </c>
       <c r="L6" t="n">
-        <v>1.010479153080013</v>
+        <v>0.9105011899352758</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02651783261005733</v>
+        <v>0.5312910404152585</v>
       </c>
       <c r="N6" t="n">
-        <v>144.5822564615023</v>
+        <v>36.59228632373207</v>
       </c>
       <c r="O6" t="n">
-        <v>285.9174290047188</v>
+        <v>73.55686991195789</v>
       </c>
     </row>
     <row r="7">
@@ -757,95 +757,95 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998174991021234</v>
+        <v>0.9315198053765765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8303290229616371</v>
+        <v>0.750979935166892</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8236334993995641</v>
+        <v>0.6772674061478651</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9997196900432435</v>
+        <v>0.9420104897280592</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0007596648596076023</v>
+        <v>0.2850506383243003</v>
       </c>
       <c r="G7" t="n">
-        <v>1.134590604718544</v>
+        <v>1.665198320170958</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6308527463304869</v>
+        <v>1.154395775098107</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001564214668791081</v>
+        <v>0.3298131980454677</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08715020493366019</v>
+        <v>1.508865545138272</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02756201842404874</v>
+        <v>0.533901337631121</v>
       </c>
       <c r="L7" t="n">
-        <v>1.011680057464105</v>
+        <v>0.9067503732787425</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02799609266231718</v>
+        <v>0.5423097499932766</v>
       </c>
       <c r="N7" t="n">
-        <v>144.3652663922843</v>
+        <v>36.51017687233107</v>
       </c>
       <c r="O7" t="n">
-        <v>285.7004389355007</v>
+        <v>73.47476046055689</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_3</t>
+          <t>model_1_26_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998196850939138</v>
+        <v>0.9341708351692317</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8303048255794571</v>
+        <v>0.7508569666230315</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8237354392754679</v>
+        <v>0.6627118697020871</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997207194599999</v>
+        <v>0.9334213563606899</v>
       </c>
       <c r="F8" t="n">
-        <v>0.000750565610420513</v>
+        <v>0.274015656038274</v>
       </c>
       <c r="G8" t="n">
-        <v>1.134752412724601</v>
+        <v>1.666020611389972</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6304881133051928</v>
+        <v>1.20646008498616</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001558470210730394</v>
+        <v>0.378663576864787</v>
       </c>
       <c r="J8" t="n">
-        <v>0.08672245397029578</v>
+        <v>1.494607818826067</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02739645251525301</v>
+        <v>0.523465047580327</v>
       </c>
       <c r="L8" t="n">
-        <v>1.011540153989515</v>
+        <v>0.91036028618789</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02782791925596311</v>
+        <v>0.5317090988066452</v>
       </c>
       <c r="N8" t="n">
-        <v>144.3893669768654</v>
+        <v>36.58914007080122</v>
       </c>
       <c r="O8" t="n">
-        <v>285.7245395200818</v>
+        <v>73.55372365902704</v>
       </c>
     </row>
     <row r="9">
@@ -855,95 +855,95 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999850081251036</v>
+        <v>0.9340634175283596</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8302630041727193</v>
+        <v>0.7506593166091833</v>
       </c>
       <c r="D9" t="n">
-        <v>0.823782108474225</v>
+        <v>0.6620161119771475</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9997750477396289</v>
+        <v>0.9324571650285575</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006240407949182147</v>
+        <v>0.2744627848361149</v>
       </c>
       <c r="G9" t="n">
-        <v>1.135032072664027</v>
+        <v>1.66734229794267</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6303211802872741</v>
+        <v>1.208948770025918</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001255301914786364</v>
+        <v>0.3841473794574808</v>
       </c>
       <c r="J9" t="n">
-        <v>0.08387794327238342</v>
+        <v>1.499296031900805</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0249808085321155</v>
+        <v>0.5238919591252713</v>
       </c>
       <c r="L9" t="n">
-        <v>1.009594799933694</v>
+        <v>0.9102140153577664</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02537423129484925</v>
+        <v>0.5321427337816673</v>
       </c>
       <c r="N9" t="n">
-        <v>144.7585896305206</v>
+        <v>36.58587920318222</v>
       </c>
       <c r="O9" t="n">
-        <v>286.093762173737</v>
+        <v>73.55046279140804</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_26_6</t>
+          <t>model_1_26_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998347523918762</v>
+        <v>0.9338367915449433</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8300571963247382</v>
+        <v>0.7502746482322469</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8236993422333722</v>
+        <v>0.6606198928056761</v>
       </c>
       <c r="E10" t="n">
-        <v>0.999761872380721</v>
+        <v>0.9305163184774066</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000687847580402949</v>
+        <v>0.2754061215422813</v>
       </c>
       <c r="G10" t="n">
-        <v>1.136408310691134</v>
+        <v>1.669914577150478</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6306172303317424</v>
+        <v>1.213942965044832</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001328824417906771</v>
+        <v>0.395185872539226</v>
       </c>
       <c r="J10" t="n">
-        <v>0.08806184669962668</v>
+        <v>1.508643191184735</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02622684846494044</v>
+        <v>0.524791502925001</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01057584691992</v>
+        <v>0.9099054182739653</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02663989511103323</v>
+        <v>0.5330564444970289</v>
       </c>
       <c r="N10" t="n">
-        <v>144.5638865693731</v>
+        <v>36.57901693022449</v>
       </c>
       <c r="O10" t="n">
-        <v>285.8990591125895</v>
+        <v>73.5436005184503</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998635437093824</v>
+        <v>0.9337178728929796</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8296871968611162</v>
+        <v>0.7500742892529632</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8235655580549506</v>
+        <v>0.6599196703142443</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9997914690359918</v>
+        <v>0.929540130031382</v>
       </c>
       <c r="F11" t="n">
-        <v>0.000568002952646817</v>
+        <v>0.2759011236058315</v>
       </c>
       <c r="G11" t="n">
-        <v>1.138882498808065</v>
+        <v>1.671254378567517</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6310957685807038</v>
+        <v>1.216447620295451</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001163666095108189</v>
+        <v>0.4007379082741123</v>
       </c>
       <c r="J11" t="n">
-        <v>0.07651706505419263</v>
+        <v>1.513299126688828</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02383281252069963</v>
+        <v>0.5252629090330208</v>
       </c>
       <c r="L11" t="n">
-        <v>1.008733202599529</v>
+        <v>0.909743486492568</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02420815549382857</v>
+        <v>0.5335352747800168</v>
       </c>
       <c r="N11" t="n">
-        <v>144.9467678818695</v>
+        <v>36.57542545051204</v>
       </c>
       <c r="O11" t="n">
-        <v>286.281940425086</v>
+        <v>73.54000903873786</v>
       </c>
     </row>
   </sheetData>
